--- a/quan.java/quan-config/excel/常量.xlsx
+++ b/quan.java/quan-config/excel/常量.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D677F5C-E669-49BA-84A8-B7BF438B7942}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,82 +381,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
